--- a/Files/STD.xlsx
+++ b/Files/STD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ilyal\git\ilya_automation\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD0CAAB-BF4B-49C9-9E3D-05194E971E0B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E34C54-0E9A-43EE-AD10-06E87BDF58F3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{47CBFCA4-01E4-4FFA-864D-2B7D980B23A2}"/>
   </bookViews>
@@ -187,7 +187,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,8 +200,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -224,33 +236,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6BCC421-D753-4C91-A27A-A5A8E3CD1E85}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,237 +652,289 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="12" t="s">
         <v>36</v>
       </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="13"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+    </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+    </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="9"/>
+      <c r="B27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="10"/>
+      <c r="B29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+    </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="6"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
+      <c r="A34" s="16"/>
+      <c r="B34" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="4" t="s">
         <v>32</v>
       </c>
     </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+    </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="8" t="s">
         <v>33</v>
       </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
+      <c r="A40" s="9"/>
+      <c r="B40" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="6"/>
+      <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="6" t="s">
+      <c r="A41" s="10"/>
+      <c r="B41" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="3" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A26:A29"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A21:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
